--- a/SAIL_22_sandiego_fy18q4.xlsx
+++ b/SAIL_22_sandiego_fy18q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Documents\UCSD\The Guardian\sail adjusted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07DDC91B-FCD1-4777-95CA-9A7E64E856C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E80FE-834A-4FBB-A280-63D023BB4E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4210" xr2:uid="{1732D930-2C7D-4A1C-B001-C650B3216D86}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Measure</t>
   </si>
@@ -38,18 +38,12 @@
     <t>Measure Unit</t>
   </si>
   <si>
-    <t>Preferred Direction</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Best 10%</t>
   </si>
   <si>
-    <t>10th-50th-90th ptile</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -65,18 +59,12 @@
     <t>wct %</t>
   </si>
   <si>
-    <t>↑</t>
-  </si>
-  <si>
     <t>54.677</t>
   </si>
   <si>
     <t>62.245</t>
   </si>
   <si>
-    <t>43.577 - 54.019 - 62.245</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty Care timely appointment, care and information</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>59.918</t>
   </si>
   <si>
-    <t>43.161 - 50.200 - 59.918</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Days Waited for Urgent Appointment (PCMH)</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t>50.771</t>
   </si>
   <si>
-    <t>31.208 - 41.029 - 50.771</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Wait times</t>
   </si>
   <si>
@@ -116,9 +98,6 @@
     <t>93.214</t>
   </si>
   <si>
-    <t>63.571 - 80.919 - 93.214</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Specialty care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -128,9 +107,6 @@
     <t>84.043</t>
   </si>
   <si>
-    <t>66.291 - 75.429 - 84.043</t>
-  </si>
-  <si>
     <t xml:space="preserve">    c. Mental health care new patient wait time &lt;=30 days from create date</t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t>96.897</t>
   </si>
   <si>
-    <t>86.406 - 92.464 - 96.897</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Call center responsiveness</t>
   </si>
   <si>
@@ -152,18 +125,12 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>↓</t>
-  </si>
-  <si>
     <t>45.704</t>
   </si>
   <si>
     <t>20.957</t>
   </si>
   <si>
-    <t>20.957 - 44.753 - 110.742</t>
-  </si>
-  <si>
     <t xml:space="preserve">    b. Call center abandonment rate</t>
   </si>
   <si>
@@ -173,9 +140,6 @@
     <t>2.625</t>
   </si>
   <si>
-    <t>2.625 - 6.232 - 10.896</t>
-  </si>
-  <si>
     <t>Mental Health</t>
   </si>
   <si>
@@ -188,9 +152,6 @@
     <t>1.268</t>
   </si>
   <si>
-    <t>-1.124 - -0.176 - 1.268</t>
-  </si>
-  <si>
     <t xml:space="preserve">  1. Population coverage</t>
   </si>
   <si>
@@ -200,9 +161,6 @@
     <t>1.171</t>
   </si>
   <si>
-    <t>-1.127 - -0.217 - 1.171</t>
-  </si>
-  <si>
     <t xml:space="preserve">  2. Continuity of care</t>
   </si>
   <si>
@@ -212,9 +170,6 @@
     <t>0.965</t>
   </si>
   <si>
-    <t>-1.225 - -0.111 - 0.965</t>
-  </si>
-  <si>
     <t xml:space="preserve">  3. Experience of care</t>
   </si>
   <si>
@@ -224,7 +179,13 @@
     <t>1.445</t>
   </si>
   <si>
-    <t>-1.071 - -0.049 - 1.445</t>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>50th</t>
+  </si>
+  <si>
+    <t>90th ptile</t>
   </si>
 </sst>
 </file>
@@ -578,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842E8145-0817-4132-84CD-8D491492C4F5}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -601,330 +562,357 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="E4">
+        <v>43.576999999999998</v>
+      </c>
+      <c r="F4">
+        <v>54.018999999999998</v>
+      </c>
+      <c r="G4">
+        <v>62.244999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>43.161000000000001</v>
+      </c>
+      <c r="F5">
+        <v>50.2</v>
+      </c>
+      <c r="G5">
+        <v>59.917999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>31.207999999999998</v>
+      </c>
+      <c r="F6">
+        <v>41.029000000000003</v>
+      </c>
+      <c r="G6">
+        <v>50.771000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>63.570999999999998</v>
+      </c>
+      <c r="F8">
+        <v>80.918999999999997</v>
+      </c>
+      <c r="G8">
+        <v>93.213999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>66.290999999999997</v>
+      </c>
+      <c r="F9">
+        <v>75.429000000000002</v>
+      </c>
+      <c r="G9">
+        <v>84.043000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>86.406000000000006</v>
+      </c>
+      <c r="F10">
+        <v>92.463999999999999</v>
+      </c>
+      <c r="G10">
+        <v>96.897000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>20.957000000000001</v>
+      </c>
+      <c r="F12">
+        <v>44.753</v>
+      </c>
+      <c r="G12">
+        <v>110.742</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>2.625</v>
+      </c>
+      <c r="F13">
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="G13">
+        <v>10.896000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>-1.1240000000000001</v>
+      </c>
+      <c r="F14">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="G14">
+        <v>1.268</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>-1.127</v>
+      </c>
+      <c r="F15">
+        <v>-0.217</v>
+      </c>
+      <c r="G15">
+        <v>1.171</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>-1.2250000000000001</v>
+      </c>
+      <c r="F16">
+        <v>-0.111</v>
+      </c>
+      <c r="G16">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>-1.071</v>
+      </c>
+      <c r="F17">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.4450000000000001</v>
       </c>
     </row>
   </sheetData>
